--- a/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200509.xlsx
+++ b/data/unchecked/manual_collect/china/shanxi/shanxiCaseStatistics_20200509.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\shanxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D316024F-DF89-4C68-B373-42BAB82C9A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6530"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10534,7 +10535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -11032,11 +11033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:AC144"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G127" sqref="A127:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -11225,10 +11226,10 @@
         <v>3294</v>
       </c>
       <c r="C2" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D2" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>3295</v>
@@ -11309,11 +11310,11 @@
       <c r="B3" s="20" t="s">
         <v>3296</v>
       </c>
-      <c r="C3" s="21">
-        <v>43959</v>
+      <c r="C3" s="19">
+        <v>43960</v>
       </c>
       <c r="D3" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>3295</v>
@@ -11393,10 +11394,10 @@
         <v>3297</v>
       </c>
       <c r="C4" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D4" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>3295</v>
@@ -11473,11 +11474,11 @@
       <c r="B5" s="20" t="s">
         <v>3297</v>
       </c>
-      <c r="C5" s="21">
-        <v>43959</v>
+      <c r="C5" s="19">
+        <v>43960</v>
       </c>
       <c r="D5" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>3295</v>
@@ -11555,10 +11556,10 @@
         <v>3297</v>
       </c>
       <c r="C6" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D6" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>3295</v>
@@ -11635,11 +11636,11 @@
       <c r="B7" s="20" t="s">
         <v>3297</v>
       </c>
-      <c r="C7" s="21">
-        <v>43959</v>
+      <c r="C7" s="19">
+        <v>43960</v>
       </c>
       <c r="D7" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>3295</v>
@@ -11715,10 +11716,10 @@
         <v>3298</v>
       </c>
       <c r="C8" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D8" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>3295</v>
@@ -11795,11 +11796,11 @@
       <c r="B9" s="20" t="s">
         <v>3297</v>
       </c>
-      <c r="C9" s="21">
-        <v>43959</v>
+      <c r="C9" s="19">
+        <v>43960</v>
       </c>
       <c r="D9" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>3295</v>
@@ -11875,10 +11876,10 @@
         <v>3297</v>
       </c>
       <c r="C10" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D10" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>3295</v>
@@ -11955,11 +11956,11 @@
       <c r="B11" s="20" t="s">
         <v>3297</v>
       </c>
-      <c r="C11" s="21">
-        <v>43959</v>
+      <c r="C11" s="19">
+        <v>43960</v>
       </c>
       <c r="D11" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>3295</v>
@@ -12035,10 +12036,10 @@
         <v>3297</v>
       </c>
       <c r="C12" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D12" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>3295</v>
@@ -12113,11 +12114,11 @@
       <c r="B13" s="20" t="s">
         <v>3297</v>
       </c>
-      <c r="C13" s="21">
-        <v>43959</v>
+      <c r="C13" s="19">
+        <v>43960</v>
       </c>
       <c r="D13" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>3295</v>
@@ -12193,10 +12194,10 @@
         <v>3297</v>
       </c>
       <c r="C14" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D14" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>3295</v>
@@ -12277,11 +12278,11 @@
       <c r="B15" s="20" t="s">
         <v>3296</v>
       </c>
-      <c r="C15" s="21">
-        <v>43959</v>
+      <c r="C15" s="19">
+        <v>43960</v>
       </c>
       <c r="D15" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>3295</v>
@@ -12359,10 +12360,10 @@
         <v>3300</v>
       </c>
       <c r="C16" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D16" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>3295</v>
@@ -12437,11 +12438,11 @@
       <c r="B17" s="20" t="s">
         <v>3301</v>
       </c>
-      <c r="C17" s="21">
-        <v>43959</v>
+      <c r="C17" s="19">
+        <v>43960</v>
       </c>
       <c r="D17" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>3295</v>
@@ -12519,10 +12520,10 @@
         <v>3302</v>
       </c>
       <c r="C18" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D18" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>3295</v>
@@ -12599,11 +12600,11 @@
       <c r="B19" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C19" s="21">
-        <v>43959</v>
+      <c r="C19" s="19">
+        <v>43960</v>
       </c>
       <c r="D19" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>3295</v>
@@ -12679,10 +12680,10 @@
         <v>3298</v>
       </c>
       <c r="C20" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D20" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>3295</v>
@@ -12757,11 +12758,11 @@
       <c r="B21" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C21" s="21">
-        <v>43959</v>
+      <c r="C21" s="19">
+        <v>43960</v>
       </c>
       <c r="D21" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>3295</v>
@@ -12837,10 +12838,10 @@
         <v>3298</v>
       </c>
       <c r="C22" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D22" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>3295</v>
@@ -12915,11 +12916,11 @@
       <c r="B23" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C23" s="21">
-        <v>43959</v>
+      <c r="C23" s="19">
+        <v>43960</v>
       </c>
       <c r="D23" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>3295</v>
@@ -12995,10 +12996,10 @@
         <v>3298</v>
       </c>
       <c r="C24" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D24" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>3295</v>
@@ -13073,11 +13074,11 @@
       <c r="B25" s="20" t="s">
         <v>3301</v>
       </c>
-      <c r="C25" s="21">
-        <v>43959</v>
+      <c r="C25" s="19">
+        <v>43960</v>
       </c>
       <c r="D25" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>3295</v>
@@ -13153,10 +13154,10 @@
         <v>3298</v>
       </c>
       <c r="C26" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D26" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>3295</v>
@@ -13233,11 +13234,11 @@
       <c r="B27" s="20" t="s">
         <v>3296</v>
       </c>
-      <c r="C27" s="21">
-        <v>43959</v>
+      <c r="C27" s="19">
+        <v>43960</v>
       </c>
       <c r="D27" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>3295</v>
@@ -13315,10 +13316,10 @@
         <v>3300</v>
       </c>
       <c r="C28" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D28" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>3295</v>
@@ -13395,11 +13396,11 @@
       <c r="B29" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C29" s="21">
-        <v>43959</v>
+      <c r="C29" s="19">
+        <v>43960</v>
       </c>
       <c r="D29" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>3295</v>
@@ -13475,10 +13476,10 @@
         <v>3301</v>
       </c>
       <c r="C30" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D30" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>3295</v>
@@ -13553,11 +13554,11 @@
       <c r="B31" s="20" t="s">
         <v>3303</v>
       </c>
-      <c r="C31" s="21">
-        <v>43959</v>
+      <c r="C31" s="19">
+        <v>43960</v>
       </c>
       <c r="D31" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>3295</v>
@@ -13633,10 +13634,10 @@
         <v>3298</v>
       </c>
       <c r="C32" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D32" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>3295</v>
@@ -13713,11 +13714,11 @@
       <c r="B33" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C33" s="21">
-        <v>43959</v>
+      <c r="C33" s="19">
+        <v>43960</v>
       </c>
       <c r="D33" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>3295</v>
@@ -13795,10 +13796,10 @@
         <v>3296</v>
       </c>
       <c r="C34" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D34" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>3295</v>
@@ -13875,11 +13876,11 @@
       <c r="B35" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C35" s="21">
-        <v>43959</v>
+      <c r="C35" s="19">
+        <v>43960</v>
       </c>
       <c r="D35" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>3295</v>
@@ -13957,10 +13958,10 @@
         <v>3298</v>
       </c>
       <c r="C36" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D36" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>3295</v>
@@ -14035,11 +14036,11 @@
       <c r="B37" s="20" t="s">
         <v>3300</v>
       </c>
-      <c r="C37" s="21">
-        <v>43959</v>
+      <c r="C37" s="19">
+        <v>43960</v>
       </c>
       <c r="D37" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>3295</v>
@@ -14115,10 +14116,10 @@
         <v>3298</v>
       </c>
       <c r="C38" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D38" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>3295</v>
@@ -14193,11 +14194,11 @@
       <c r="B39" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C39" s="21">
-        <v>43959</v>
+      <c r="C39" s="19">
+        <v>43960</v>
       </c>
       <c r="D39" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>3295</v>
@@ -14273,10 +14274,10 @@
         <v>3300</v>
       </c>
       <c r="C40" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D40" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>3295</v>
@@ -14351,11 +14352,11 @@
       <c r="B41" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C41" s="21">
-        <v>43959</v>
+      <c r="C41" s="19">
+        <v>43960</v>
       </c>
       <c r="D41" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>3295</v>
@@ -14431,10 +14432,10 @@
         <v>3298</v>
       </c>
       <c r="C42" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D42" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>3295</v>
@@ -14511,11 +14512,11 @@
       <c r="B43" s="20" t="s">
         <v>3300</v>
       </c>
-      <c r="C43" s="21">
-        <v>43959</v>
+      <c r="C43" s="19">
+        <v>43960</v>
       </c>
       <c r="D43" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>3295</v>
@@ -14591,10 +14592,10 @@
         <v>3298</v>
       </c>
       <c r="C44" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D44" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>3295</v>
@@ -14669,11 +14670,11 @@
       <c r="B45" s="20" t="s">
         <v>3302</v>
       </c>
-      <c r="C45" s="21">
-        <v>43959</v>
+      <c r="C45" s="19">
+        <v>43960</v>
       </c>
       <c r="D45" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>3295</v>
@@ -14749,10 +14750,10 @@
         <v>3298</v>
       </c>
       <c r="C46" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D46" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>3295</v>
@@ -14827,11 +14828,11 @@
       <c r="B47" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C47" s="21">
-        <v>43959</v>
+      <c r="C47" s="19">
+        <v>43960</v>
       </c>
       <c r="D47" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>3295</v>
@@ -14909,10 +14910,10 @@
         <v>3296</v>
       </c>
       <c r="C48" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D48" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>3295</v>
@@ -14989,11 +14990,11 @@
       <c r="B49" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C49" s="21">
-        <v>43959</v>
+      <c r="C49" s="19">
+        <v>43960</v>
       </c>
       <c r="D49" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>3295</v>
@@ -15071,10 +15072,10 @@
         <v>3298</v>
       </c>
       <c r="C50" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D50" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>3295</v>
@@ -15151,11 +15152,11 @@
       <c r="B51" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C51" s="21">
-        <v>43959</v>
+      <c r="C51" s="19">
+        <v>43960</v>
       </c>
       <c r="D51" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>3295</v>
@@ -15233,10 +15234,10 @@
         <v>3298</v>
       </c>
       <c r="C52" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D52" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>3295</v>
@@ -15313,11 +15314,11 @@
       <c r="B53" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C53" s="21">
-        <v>43959</v>
+      <c r="C53" s="19">
+        <v>43960</v>
       </c>
       <c r="D53" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>3295</v>
@@ -15395,10 +15396,10 @@
         <v>3298</v>
       </c>
       <c r="C54" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D54" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>3295</v>
@@ -15473,11 +15474,11 @@
       <c r="B55" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C55" s="21">
-        <v>43959</v>
+      <c r="C55" s="19">
+        <v>43960</v>
       </c>
       <c r="D55" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>3295</v>
@@ -15555,10 +15556,10 @@
         <v>3296</v>
       </c>
       <c r="C56" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D56" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>3295</v>
@@ -15635,11 +15636,11 @@
       <c r="B57" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C57" s="21">
-        <v>43959</v>
+      <c r="C57" s="19">
+        <v>43960</v>
       </c>
       <c r="D57" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>3295</v>
@@ -15717,10 +15718,10 @@
         <v>3298</v>
       </c>
       <c r="C58" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D58" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>3295</v>
@@ -15795,11 +15796,11 @@
       <c r="B59" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C59" s="21">
-        <v>43959</v>
+      <c r="C59" s="19">
+        <v>43960</v>
       </c>
       <c r="D59" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>3295</v>
@@ -15875,10 +15876,10 @@
         <v>3298</v>
       </c>
       <c r="C60" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D60" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>3295</v>
@@ -15955,11 +15956,11 @@
       <c r="B61" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C61" s="21">
-        <v>43959</v>
+      <c r="C61" s="19">
+        <v>43960</v>
       </c>
       <c r="D61" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>3295</v>
@@ -16035,10 +16036,10 @@
         <v>3298</v>
       </c>
       <c r="C62" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D62" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>3295</v>
@@ -16115,11 +16116,11 @@
       <c r="B63" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C63" s="21">
-        <v>43959</v>
+      <c r="C63" s="19">
+        <v>43960</v>
       </c>
       <c r="D63" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>3295</v>
@@ -16197,10 +16198,10 @@
         <v>3306</v>
       </c>
       <c r="C64" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D64" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>3295</v>
@@ -16277,11 +16278,11 @@
       <c r="B65" s="20" t="s">
         <v>3303</v>
       </c>
-      <c r="C65" s="21">
-        <v>43959</v>
+      <c r="C65" s="19">
+        <v>43960</v>
       </c>
       <c r="D65" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>3295</v>
@@ -16357,10 +16358,10 @@
         <v>3298</v>
       </c>
       <c r="C66" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D66" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>3295</v>
@@ -16435,11 +16436,11 @@
       <c r="B67" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C67" s="21">
-        <v>43959</v>
+      <c r="C67" s="19">
+        <v>43960</v>
       </c>
       <c r="D67" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>3295</v>
@@ -16515,10 +16516,10 @@
         <v>3298</v>
       </c>
       <c r="C68" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D68" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>3295</v>
@@ -16593,11 +16594,11 @@
       <c r="B69" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C69" s="21">
-        <v>43959</v>
+      <c r="C69" s="19">
+        <v>43960</v>
       </c>
       <c r="D69" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>3295</v>
@@ -16673,10 +16674,10 @@
         <v>3300</v>
       </c>
       <c r="C70" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D70" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>3295</v>
@@ -16753,11 +16754,11 @@
       <c r="B71" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C71" s="21">
-        <v>43959</v>
+      <c r="C71" s="19">
+        <v>43960</v>
       </c>
       <c r="D71" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E71" s="18" t="s">
         <v>3295</v>
@@ -16833,10 +16834,10 @@
         <v>3307</v>
       </c>
       <c r="C72" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D72" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>3295</v>
@@ -16911,11 +16912,11 @@
       <c r="B73" s="20" t="s">
         <v>3301</v>
       </c>
-      <c r="C73" s="21">
-        <v>43959</v>
+      <c r="C73" s="19">
+        <v>43960</v>
       </c>
       <c r="D73" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>3295</v>
@@ -16993,10 +16994,10 @@
         <v>3298</v>
       </c>
       <c r="C74" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D74" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>3295</v>
@@ -17071,11 +17072,11 @@
       <c r="B75" s="20" t="s">
         <v>3308</v>
       </c>
-      <c r="C75" s="21">
-        <v>43959</v>
+      <c r="C75" s="19">
+        <v>43960</v>
       </c>
       <c r="D75" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>3295</v>
@@ -17151,10 +17152,10 @@
         <v>3298</v>
       </c>
       <c r="C76" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D76" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>3295</v>
@@ -17231,11 +17232,11 @@
       <c r="B77" s="20" t="s">
         <v>3306</v>
       </c>
-      <c r="C77" s="21">
-        <v>43959</v>
+      <c r="C77" s="19">
+        <v>43960</v>
       </c>
       <c r="D77" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>3295</v>
@@ -17313,10 +17314,10 @@
         <v>3298</v>
       </c>
       <c r="C78" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D78" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>3295</v>
@@ -17393,11 +17394,11 @@
       <c r="B79" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C79" s="21">
-        <v>43959</v>
+      <c r="C79" s="19">
+        <v>43960</v>
       </c>
       <c r="D79" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>3295</v>
@@ -17473,10 +17474,10 @@
         <v>3301</v>
       </c>
       <c r="C80" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D80" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>3295</v>
@@ -17553,11 +17554,11 @@
       <c r="B81" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C81" s="21">
-        <v>43959</v>
+      <c r="C81" s="19">
+        <v>43960</v>
       </c>
       <c r="D81" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>3295</v>
@@ -17633,10 +17634,10 @@
         <v>3298</v>
       </c>
       <c r="C82" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D82" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E82" s="18" t="s">
         <v>3295</v>
@@ -17713,11 +17714,11 @@
       <c r="B83" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C83" s="21">
-        <v>43959</v>
+      <c r="C83" s="19">
+        <v>43960</v>
       </c>
       <c r="D83" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E83" s="18" t="s">
         <v>3295</v>
@@ -17795,10 +17796,10 @@
         <v>3298</v>
       </c>
       <c r="C84" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D84" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>3295</v>
@@ -17875,11 +17876,11 @@
       <c r="B85" s="20" t="s">
         <v>3300</v>
       </c>
-      <c r="C85" s="21">
-        <v>43959</v>
+      <c r="C85" s="19">
+        <v>43960</v>
       </c>
       <c r="D85" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>3295</v>
@@ -17955,10 +17956,10 @@
         <v>3303</v>
       </c>
       <c r="C86" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D86" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>3295</v>
@@ -18035,11 +18036,11 @@
       <c r="B87" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C87" s="21">
-        <v>43959</v>
+      <c r="C87" s="19">
+        <v>43960</v>
       </c>
       <c r="D87" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>3295</v>
@@ -18117,10 +18118,10 @@
         <v>3300</v>
       </c>
       <c r="C88" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D88" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E88" s="18" t="s">
         <v>3295</v>
@@ -18197,11 +18198,11 @@
       <c r="B89" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C89" s="21">
-        <v>43959</v>
+      <c r="C89" s="19">
+        <v>43960</v>
       </c>
       <c r="D89" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>3295</v>
@@ -18277,10 +18278,10 @@
         <v>3298</v>
       </c>
       <c r="C90" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D90" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E90" s="18" t="s">
         <v>3295</v>
@@ -18357,11 +18358,11 @@
       <c r="B91" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C91" s="21">
-        <v>43959</v>
+      <c r="C91" s="19">
+        <v>43960</v>
       </c>
       <c r="D91" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>3295</v>
@@ -18439,10 +18440,10 @@
         <v>3296</v>
       </c>
       <c r="C92" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D92" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E92" s="18" t="s">
         <v>3295</v>
@@ -18519,11 +18520,11 @@
       <c r="B93" s="20" t="s">
         <v>3300</v>
       </c>
-      <c r="C93" s="21">
-        <v>43959</v>
+      <c r="C93" s="19">
+        <v>43960</v>
       </c>
       <c r="D93" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>3295</v>
@@ -18601,10 +18602,10 @@
         <v>3298</v>
       </c>
       <c r="C94" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D94" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>3295</v>
@@ -18679,11 +18680,11 @@
       <c r="B95" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C95" s="21">
-        <v>43959</v>
+      <c r="C95" s="19">
+        <v>43960</v>
       </c>
       <c r="D95" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>3295</v>
@@ -18761,10 +18762,10 @@
         <v>3298</v>
       </c>
       <c r="C96" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D96" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>3295</v>
@@ -18839,11 +18840,11 @@
       <c r="B97" s="20" t="s">
         <v>3310</v>
       </c>
-      <c r="C97" s="21">
-        <v>43959</v>
+      <c r="C97" s="19">
+        <v>43960</v>
       </c>
       <c r="D97" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>3295</v>
@@ -18919,10 +18920,10 @@
         <v>3298</v>
       </c>
       <c r="C98" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D98" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>3295</v>
@@ -18997,11 +18998,11 @@
       <c r="B99" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C99" s="21">
-        <v>43959</v>
+      <c r="C99" s="19">
+        <v>43960</v>
       </c>
       <c r="D99" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>3295</v>
@@ -19077,10 +19078,10 @@
         <v>3300</v>
       </c>
       <c r="C100" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D100" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>3295</v>
@@ -19155,11 +19156,11 @@
       <c r="B101" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C101" s="21">
-        <v>43959</v>
+      <c r="C101" s="19">
+        <v>43960</v>
       </c>
       <c r="D101" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>3295</v>
@@ -19235,10 +19236,10 @@
         <v>3298</v>
       </c>
       <c r="C102" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D102" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>3295</v>
@@ -19313,11 +19314,11 @@
       <c r="B103" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C103" s="21">
-        <v>43959</v>
+      <c r="C103" s="19">
+        <v>43960</v>
       </c>
       <c r="D103" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>3295</v>
@@ -19393,10 +19394,10 @@
         <v>3298</v>
       </c>
       <c r="C104" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D104" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>3295</v>
@@ -19471,11 +19472,11 @@
       <c r="B105" s="20" t="s">
         <v>3302</v>
       </c>
-      <c r="C105" s="21">
-        <v>43959</v>
+      <c r="C105" s="19">
+        <v>43960</v>
       </c>
       <c r="D105" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E105" s="18" t="s">
         <v>3295</v>
@@ -19551,10 +19552,10 @@
         <v>3307</v>
       </c>
       <c r="C106" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D106" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E106" s="18" t="s">
         <v>3295</v>
@@ -19629,11 +19630,11 @@
       <c r="B107" s="20" t="s">
         <v>3301</v>
       </c>
-      <c r="C107" s="21">
-        <v>43959</v>
+      <c r="C107" s="19">
+        <v>43960</v>
       </c>
       <c r="D107" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E107" s="18" t="s">
         <v>3295</v>
@@ -19711,10 +19712,10 @@
         <v>3296</v>
       </c>
       <c r="C108" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D108" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E108" s="18" t="s">
         <v>3295</v>
@@ -19791,11 +19792,11 @@
       <c r="B109" s="20" t="s">
         <v>3300</v>
       </c>
-      <c r="C109" s="21">
-        <v>43959</v>
+      <c r="C109" s="19">
+        <v>43960</v>
       </c>
       <c r="D109" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E109" s="18" t="s">
         <v>3295</v>
@@ -19871,10 +19872,10 @@
         <v>3298</v>
       </c>
       <c r="C110" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D110" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E110" s="18" t="s">
         <v>3295</v>
@@ -19949,11 +19950,11 @@
       <c r="B111" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C111" s="21">
-        <v>43959</v>
+      <c r="C111" s="19">
+        <v>43960</v>
       </c>
       <c r="D111" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>3295</v>
@@ -20029,10 +20030,10 @@
         <v>3298</v>
       </c>
       <c r="C112" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D112" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E112" s="18" t="s">
         <v>3295</v>
@@ -20107,11 +20108,11 @@
       <c r="B113" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C113" s="21">
-        <v>43959</v>
+      <c r="C113" s="19">
+        <v>43960</v>
       </c>
       <c r="D113" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E113" s="18" t="s">
         <v>3295</v>
@@ -20187,10 +20188,10 @@
         <v>3298</v>
       </c>
       <c r="C114" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D114" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E114" s="18" t="s">
         <v>3295</v>
@@ -20265,11 +20266,11 @@
       <c r="B115" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C115" s="21">
-        <v>43959</v>
+      <c r="C115" s="19">
+        <v>43960</v>
       </c>
       <c r="D115" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E115" s="18" t="s">
         <v>3295</v>
@@ -20345,10 +20346,10 @@
         <v>3298</v>
       </c>
       <c r="C116" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D116" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>3295</v>
@@ -20423,11 +20424,11 @@
       <c r="B117" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C117" s="21">
-        <v>43959</v>
+      <c r="C117" s="19">
+        <v>43960</v>
       </c>
       <c r="D117" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E117" s="18" t="s">
         <v>3295</v>
@@ -20505,10 +20506,10 @@
         <v>3298</v>
       </c>
       <c r="C118" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D118" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E118" s="18" t="s">
         <v>3295</v>
@@ -20585,11 +20586,11 @@
       <c r="B119" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C119" s="21">
-        <v>43959</v>
+      <c r="C119" s="19">
+        <v>43960</v>
       </c>
       <c r="D119" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E119" s="18" t="s">
         <v>3295</v>
@@ -20665,10 +20666,10 @@
         <v>3298</v>
       </c>
       <c r="C120" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D120" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E120" s="18" t="s">
         <v>3295</v>
@@ -20743,11 +20744,11 @@
       <c r="B121" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C121" s="21">
-        <v>43959</v>
+      <c r="C121" s="19">
+        <v>43960</v>
       </c>
       <c r="D121" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>3295</v>
@@ -20823,10 +20824,10 @@
         <v>3298</v>
       </c>
       <c r="C122" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D122" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>3295</v>
@@ -20901,11 +20902,11 @@
       <c r="B123" s="20" t="s">
         <v>3302</v>
       </c>
-      <c r="C123" s="21">
-        <v>43959</v>
+      <c r="C123" s="19">
+        <v>43960</v>
       </c>
       <c r="D123" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E123" s="18" t="s">
         <v>3295</v>
@@ -20981,10 +20982,10 @@
         <v>3301</v>
       </c>
       <c r="C124" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D124" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E124" s="18" t="s">
         <v>3295</v>
@@ -21059,11 +21060,11 @@
       <c r="B125" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C125" s="21">
-        <v>43959</v>
+      <c r="C125" s="19">
+        <v>43960</v>
       </c>
       <c r="D125" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E125" s="18" t="s">
         <v>3295</v>
@@ -21139,10 +21140,10 @@
         <v>3298</v>
       </c>
       <c r="C126" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D126" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E126" s="18" t="s">
         <v>3295</v>
@@ -21219,11 +21220,11 @@
       <c r="B127" s="20" t="s">
         <v>3306</v>
       </c>
-      <c r="C127" s="21">
-        <v>43959</v>
+      <c r="C127" s="19">
+        <v>43960</v>
       </c>
       <c r="D127" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E127" s="18" t="s">
         <v>3295</v>
@@ -21301,10 +21302,10 @@
         <v>3298</v>
       </c>
       <c r="C128" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D128" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E128" s="18" t="s">
         <v>3295</v>
@@ -21381,11 +21382,11 @@
       <c r="B129" s="20" t="s">
         <v>3302</v>
       </c>
-      <c r="C129" s="21">
-        <v>43959</v>
+      <c r="C129" s="19">
+        <v>43960</v>
       </c>
       <c r="D129" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E129" s="18" t="s">
         <v>3295</v>
@@ -21463,10 +21464,10 @@
         <v>3298</v>
       </c>
       <c r="C130" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D130" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>3295</v>
@@ -21541,11 +21542,11 @@
       <c r="B131" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C131" s="21">
-        <v>43959</v>
+      <c r="C131" s="19">
+        <v>43960</v>
       </c>
       <c r="D131" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>3295</v>
@@ -21621,10 +21622,10 @@
         <v>3298</v>
       </c>
       <c r="C132" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D132" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>3295</v>
@@ -21699,11 +21700,11 @@
       <c r="B133" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C133" s="21">
-        <v>43959</v>
+      <c r="C133" s="19">
+        <v>43960</v>
       </c>
       <c r="D133" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E133" s="18" t="s">
         <v>3295</v>
@@ -21779,10 +21780,10 @@
         <v>3300</v>
       </c>
       <c r="C134" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D134" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E134" s="18" t="s">
         <v>3295</v>
@@ -21857,11 +21858,11 @@
       <c r="B135" s="20" t="s">
         <v>3301</v>
       </c>
-      <c r="C135" s="21">
-        <v>43959</v>
+      <c r="C135" s="19">
+        <v>43960</v>
       </c>
       <c r="D135" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E135" s="18" t="s">
         <v>3295</v>
@@ -21937,10 +21938,10 @@
         <v>3298</v>
       </c>
       <c r="C136" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D136" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E136" s="18" t="s">
         <v>3295</v>
@@ -22015,11 +22016,11 @@
       <c r="B137" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C137" s="21">
-        <v>43959</v>
+      <c r="C137" s="19">
+        <v>43960</v>
       </c>
       <c r="D137" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E137" s="18" t="s">
         <v>3295</v>
@@ -22095,10 +22096,10 @@
         <v>3303</v>
       </c>
       <c r="C138" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D138" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E138" s="18" t="s">
         <v>3295</v>
@@ -22173,11 +22174,11 @@
       <c r="B139" s="20" t="s">
         <v>3298</v>
       </c>
-      <c r="C139" s="21">
-        <v>43959</v>
+      <c r="C139" s="19">
+        <v>43960</v>
       </c>
       <c r="D139" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E139" s="18" t="s">
         <v>3295</v>
@@ -22255,10 +22256,10 @@
         <v>3298</v>
       </c>
       <c r="C140" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D140" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E140" s="18" t="s">
         <v>3295</v>
@@ -22333,11 +22334,11 @@
       <c r="B141" s="20" t="s">
         <v>3300</v>
       </c>
-      <c r="C141" s="21">
-        <v>43959</v>
+      <c r="C141" s="19">
+        <v>43960</v>
       </c>
       <c r="D141" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E141" s="18" t="s">
         <v>3295</v>
@@ -22415,10 +22416,10 @@
         <v>3306</v>
       </c>
       <c r="C142" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D142" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E142" s="18" t="s">
         <v>3295</v>
@@ -22491,11 +22492,11 @@
       <c r="B143" s="20" t="s">
         <v>3296</v>
       </c>
-      <c r="C143" s="21">
-        <v>43959</v>
+      <c r="C143" s="19">
+        <v>43960</v>
       </c>
       <c r="D143" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E143" s="18" t="s">
         <v>3295</v>
@@ -22573,10 +22574,10 @@
         <v>3298</v>
       </c>
       <c r="C144" s="19">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D144" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E144" s="18" t="s">
         <v>3295</v>
@@ -22655,11 +22656,11 @@
       <c r="B145" s="20" t="s">
         <v>3297</v>
       </c>
-      <c r="C145" s="21">
-        <v>43959</v>
+      <c r="C145" s="19">
+        <v>43960</v>
       </c>
       <c r="D145" s="19">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="E145" s="18" t="s">
         <v>3295</v>
@@ -22967,344 +22968,344 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="58">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK152:AK1048576 AG152:AG1048576 AQ152:AQ1048576 AN2:AN151 AH145:AH151 AD145:AD151 AK2:AK144 AG2:AG144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK152:AK1048576 AG152:AG1048576 AQ152:AQ1048576 AN2:AN151 AH145:AH151 AD145:AD151 AK2:AK144 AG2:AG144" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM152:AM1048576 AS152:AS1048576 AP2:AP151 AM2:AM144 AJ145:AJ151">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM152:AM1048576 AS152:AS1048576 AP2:AP151 AM2:AM144 AJ145:AJ151" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:L1048576 M3:O1048576 P152:X1048576 P2:U151">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:L1048576 M3:O1048576 P152:X1048576 P2:U151" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI152:AI1048576 AF145:AF151 AI2:AI144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI152:AI1048576 AF145:AF151 AI2:AI144" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G143:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G143:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($F143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H143:H144 H146:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H143:H144 H146:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H134">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H134" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108:G122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G108:G122" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>INDIRECT($F92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94 H109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94 H109" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>INDIRECT($G127)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G77:G88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G77:G88" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>INDIRECT($F64)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G40:G47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G40:G47" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>INDIRECT($F34)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H97 H78 H112">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H97 H78 H112" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>INDIRECT($G108)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G64:G70 G56:G62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G64:G70 G56:G62" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>INDIRECT($F48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63 G34:G39 G71:G76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63 G34:G39 G71:G76" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>INDIRECT($F27)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14 H47 H63 H126 H26 H33 H55 H76 H91 H107 H141 H145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14 H47 H63 H126 H26 H33 H55 H76 H91 H107 H141 H145" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G33 G89:G91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G33 G89:G91" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>INDIRECT($F3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G127:G141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G127:G141" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>INDIRECT($F108)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H137">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H137" xr:uid="{00000000-0002-0000-0000-000012000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H138" xr:uid="{00000000-0002-0000-0000-000013000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H139">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H139" xr:uid="{00000000-0002-0000-0000-000014000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H140" xr:uid="{00000000-0002-0000-0000-000015000000}">
       <formula1>INDIRECT($G143)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24:H25" xr:uid="{00000000-0002-0000-0000-000016000000}">
       <formula1>INDIRECT($G142)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23" xr:uid="{00000000-0002-0000-0000-000017000000}">
       <formula1>INDIRECT($G127)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92:G105 G123:G126 G142:H142">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92:G105 G123:G126 G142:H142" xr:uid="{00000000-0002-0000-0000-000018000000}">
       <formula1>INDIRECT($F77)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H98 H79 H113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H98 H79 H113" xr:uid="{00000000-0002-0000-0000-000019000000}">
       <formula1>INDIRECT($G108)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17 H96 H111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17 H96 H111" xr:uid="{00000000-0002-0000-0000-00001A000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H95 H110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H95 H110" xr:uid="{00000000-0002-0000-0000-00001B000000}">
       <formula1>INDIRECT($G127)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H93" xr:uid="{00000000-0002-0000-0000-00001C000000}">
       <formula1>INDIRECT($G127)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22" xr:uid="{00000000-0002-0000-0000-00001D000000}">
       <formula1>INDIRECT($G108)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30 H66 H101 H82 H116">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30 H66 H101 H82 H116" xr:uid="{00000000-0002-0000-0000-00001E000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65 H100 H81 H115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65 H100 H81 H115" xr:uid="{00000000-0002-0000-0000-00001F000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21" xr:uid="{00000000-0002-0000-0000-000020000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28 H36 H57 H72 H88 H122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28 H36 H57 H72 H88 H122" xr:uid="{00000000-0002-0000-0000-000021000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68 H103 H84 H118">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H68 H103 H84 H118" xr:uid="{00000000-0002-0000-0000-000022000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35 H71 H87 H106 H121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35 H71 H87 H106 H121" xr:uid="{00000000-0002-0000-0000-000023000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H67 H102 H83 H117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H67 H102 H83 H117" xr:uid="{00000000-0002-0000-0000-000024000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H70 H105 H86 H120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H70 H105 H86 H120" xr:uid="{00000000-0002-0000-0000-000025000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20" xr:uid="{00000000-0002-0000-0000-000026000000}">
       <formula1>INDIRECT($G77)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19" xr:uid="{00000000-0002-0000-0000-000027000000}">
       <formula1>INDIRECT($G64)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18" xr:uid="{00000000-0002-0000-0000-000028000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G48:G55 G106:G107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G48:G55 G106:G107" xr:uid="{00000000-0002-0000-0000-000029000000}">
       <formula1>INDIRECT($F34)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H108 H29 H37 H58 H73 H89 H123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H108 H29 H37 H58 H73 H89 H123" xr:uid="{00000000-0002-0000-0000-00002A000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H15 H44 H52 H131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H15 H44 H52 H131" xr:uid="{00000000-0002-0000-0000-00002B000000}">
       <formula1>INDIRECT($G15)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H56 H48 H135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H56 H48 H135" xr:uid="{00000000-0002-0000-0000-00002C000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46 H54 H133">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46 H54 H133" xr:uid="{00000000-0002-0000-0000-00002D000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H69 H104 H85 H119">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H69 H104 H85 H119" xr:uid="{00000000-0002-0000-0000-00002E000000}">
       <formula1>INDIRECT($G92)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31 H39 H60 H75 H125">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H31 H39 H60 H75 H125" xr:uid="{00000000-0002-0000-0000-00002F000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99 H80 H114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99 H80 H114" xr:uid="{00000000-0002-0000-0000-000030000000}">
       <formula1>INDIRECT($G108)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H43 H51 H64 H130">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H43 H51 H64 H130" xr:uid="{00000000-0002-0000-0000-000031000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H38 H59 H74 H90 H124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H38 H59 H74 H90 H124" xr:uid="{00000000-0002-0000-0000-000032000000}">
       <formula1>INDIRECT($G34)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H34 H42 H50 H129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H34 H42 H50 H129" xr:uid="{00000000-0002-0000-0000-000033000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41 H49 H62 H77 H127:H128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41 H49 H62 H77 H127:H128" xr:uid="{00000000-0002-0000-0000-000034000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32 H40 H61 H92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32 H40 H61 H92" xr:uid="{00000000-0002-0000-0000-000035000000}">
       <formula1>INDIRECT($G48)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H136 H27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H136 H27" xr:uid="{00000000-0002-0000-0000-000036000000}">
       <formula1>INDIRECT($G34)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H45 H53 H132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H45 H53 H132" xr:uid="{00000000-0002-0000-0000-000037000000}">
       <formula1>INDIRECT($G56)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0000-000038000000}">
       <formula1>INDIRECT($G3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 H4:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14 H4:H13" xr:uid="{00000000-0002-0000-0000-000039000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1"/>
-    <hyperlink ref="AB3" r:id="rId2"/>
-    <hyperlink ref="AB4" r:id="rId3"/>
-    <hyperlink ref="AB6" r:id="rId4"/>
-    <hyperlink ref="AB8" r:id="rId5"/>
-    <hyperlink ref="AB10" r:id="rId6"/>
-    <hyperlink ref="AB12" r:id="rId7"/>
-    <hyperlink ref="AB14" r:id="rId8"/>
-    <hyperlink ref="AB16" r:id="rId9"/>
-    <hyperlink ref="AB18" r:id="rId10"/>
-    <hyperlink ref="AB20" r:id="rId11"/>
-    <hyperlink ref="AB22" r:id="rId12"/>
-    <hyperlink ref="AB24" r:id="rId13"/>
-    <hyperlink ref="AB26" r:id="rId14"/>
-    <hyperlink ref="AB28" r:id="rId15"/>
-    <hyperlink ref="AB30" r:id="rId16"/>
-    <hyperlink ref="AB32" r:id="rId17"/>
-    <hyperlink ref="AB34" r:id="rId18"/>
-    <hyperlink ref="AB36" r:id="rId19"/>
-    <hyperlink ref="AB38" r:id="rId20"/>
-    <hyperlink ref="AB40" r:id="rId21"/>
-    <hyperlink ref="AB42" r:id="rId22"/>
-    <hyperlink ref="AB44" r:id="rId23"/>
-    <hyperlink ref="AB46" r:id="rId24"/>
-    <hyperlink ref="AB48" r:id="rId25"/>
-    <hyperlink ref="AB50" r:id="rId26"/>
-    <hyperlink ref="AB52" r:id="rId27"/>
-    <hyperlink ref="AB54" r:id="rId28"/>
-    <hyperlink ref="AB56" r:id="rId29"/>
-    <hyperlink ref="AB58" r:id="rId30"/>
-    <hyperlink ref="AB60" r:id="rId31"/>
-    <hyperlink ref="AB62" r:id="rId32"/>
-    <hyperlink ref="AB64" r:id="rId33"/>
-    <hyperlink ref="AB66" r:id="rId34"/>
-    <hyperlink ref="AB68" r:id="rId35"/>
-    <hyperlink ref="AB70" r:id="rId36"/>
-    <hyperlink ref="AB72" r:id="rId37"/>
-    <hyperlink ref="AB74" r:id="rId38"/>
-    <hyperlink ref="AB76" r:id="rId39"/>
-    <hyperlink ref="AB78" r:id="rId40"/>
-    <hyperlink ref="AB80" r:id="rId41"/>
-    <hyperlink ref="AB82" r:id="rId42"/>
-    <hyperlink ref="AB84" r:id="rId43"/>
-    <hyperlink ref="AB86" r:id="rId44"/>
-    <hyperlink ref="AB88" r:id="rId45"/>
-    <hyperlink ref="AB90" r:id="rId46"/>
-    <hyperlink ref="AB92" r:id="rId47"/>
-    <hyperlink ref="AB94" r:id="rId48"/>
-    <hyperlink ref="AB96" r:id="rId49"/>
-    <hyperlink ref="AB98" r:id="rId50"/>
-    <hyperlink ref="AB100" r:id="rId51"/>
-    <hyperlink ref="AB102" r:id="rId52"/>
-    <hyperlink ref="AB104" r:id="rId53"/>
-    <hyperlink ref="AB106" r:id="rId54"/>
-    <hyperlink ref="AB108" r:id="rId55"/>
-    <hyperlink ref="AB110" r:id="rId56"/>
-    <hyperlink ref="AB112" r:id="rId57"/>
-    <hyperlink ref="AB114" r:id="rId58"/>
-    <hyperlink ref="AB116" r:id="rId59"/>
-    <hyperlink ref="AB118" r:id="rId60"/>
-    <hyperlink ref="AB120" r:id="rId61"/>
-    <hyperlink ref="AB122" r:id="rId62"/>
-    <hyperlink ref="AB124" r:id="rId63"/>
-    <hyperlink ref="AB126" r:id="rId64"/>
-    <hyperlink ref="AB128" r:id="rId65"/>
-    <hyperlink ref="AB130" r:id="rId66"/>
-    <hyperlink ref="AB132" r:id="rId67"/>
-    <hyperlink ref="AB134" r:id="rId68"/>
-    <hyperlink ref="AB136" r:id="rId69"/>
-    <hyperlink ref="AB138" r:id="rId70"/>
-    <hyperlink ref="AB140" r:id="rId71"/>
-    <hyperlink ref="AB142" r:id="rId72"/>
-    <hyperlink ref="AB144" r:id="rId73"/>
-    <hyperlink ref="AB5" r:id="rId74"/>
-    <hyperlink ref="AB7" r:id="rId75"/>
-    <hyperlink ref="AB9" r:id="rId76"/>
-    <hyperlink ref="AB11" r:id="rId77"/>
-    <hyperlink ref="AB13" r:id="rId78"/>
-    <hyperlink ref="AB15" r:id="rId79"/>
-    <hyperlink ref="AB17" r:id="rId80"/>
-    <hyperlink ref="AB19" r:id="rId81"/>
-    <hyperlink ref="AB21" r:id="rId82"/>
-    <hyperlink ref="AB23" r:id="rId83"/>
-    <hyperlink ref="AB25" r:id="rId84"/>
-    <hyperlink ref="AB27" r:id="rId85"/>
-    <hyperlink ref="AB29" r:id="rId86"/>
-    <hyperlink ref="AB31" r:id="rId87"/>
-    <hyperlink ref="AB33" r:id="rId88"/>
-    <hyperlink ref="AB35" r:id="rId89"/>
-    <hyperlink ref="AB37" r:id="rId90"/>
-    <hyperlink ref="AB39" r:id="rId91"/>
-    <hyperlink ref="AB41" r:id="rId92"/>
-    <hyperlink ref="AB43" r:id="rId93"/>
-    <hyperlink ref="AB45" r:id="rId94"/>
-    <hyperlink ref="AB47" r:id="rId95"/>
-    <hyperlink ref="AB49" r:id="rId96"/>
-    <hyperlink ref="AB51" r:id="rId97"/>
-    <hyperlink ref="AB53" r:id="rId98"/>
-    <hyperlink ref="AB55" r:id="rId99"/>
-    <hyperlink ref="AB57" r:id="rId100"/>
-    <hyperlink ref="AB59" r:id="rId101"/>
-    <hyperlink ref="AB61" r:id="rId102"/>
-    <hyperlink ref="AB63" r:id="rId103"/>
-    <hyperlink ref="AB65" r:id="rId104"/>
-    <hyperlink ref="AB67" r:id="rId105"/>
-    <hyperlink ref="AB69" r:id="rId106"/>
-    <hyperlink ref="AB71" r:id="rId107"/>
-    <hyperlink ref="AB73" r:id="rId108"/>
-    <hyperlink ref="AB75" r:id="rId109"/>
-    <hyperlink ref="AB77" r:id="rId110"/>
-    <hyperlink ref="AB79" r:id="rId111"/>
-    <hyperlink ref="AB81" r:id="rId112"/>
-    <hyperlink ref="AB83" r:id="rId113"/>
-    <hyperlink ref="AB85" r:id="rId114"/>
-    <hyperlink ref="AB87" r:id="rId115"/>
-    <hyperlink ref="AB89" r:id="rId116"/>
-    <hyperlink ref="AB91" r:id="rId117"/>
-    <hyperlink ref="AB93" r:id="rId118"/>
-    <hyperlink ref="AB95" r:id="rId119"/>
-    <hyperlink ref="AB97" r:id="rId120"/>
-    <hyperlink ref="AB99" r:id="rId121"/>
-    <hyperlink ref="AB101" r:id="rId122"/>
-    <hyperlink ref="AB103" r:id="rId123"/>
-    <hyperlink ref="AB105" r:id="rId124"/>
-    <hyperlink ref="AB107" r:id="rId125"/>
-    <hyperlink ref="AB109" r:id="rId126"/>
-    <hyperlink ref="AB111" r:id="rId127"/>
-    <hyperlink ref="AB113" r:id="rId128"/>
-    <hyperlink ref="AB115" r:id="rId129"/>
-    <hyperlink ref="AB117" r:id="rId130"/>
-    <hyperlink ref="AB119" r:id="rId131"/>
-    <hyperlink ref="AB121" r:id="rId132"/>
-    <hyperlink ref="AB123" r:id="rId133"/>
-    <hyperlink ref="AB125" r:id="rId134"/>
-    <hyperlink ref="AB127" r:id="rId135"/>
-    <hyperlink ref="AB129" r:id="rId136"/>
-    <hyperlink ref="AB131" r:id="rId137"/>
-    <hyperlink ref="AB133" r:id="rId138"/>
-    <hyperlink ref="AB135" r:id="rId139"/>
-    <hyperlink ref="AB137" r:id="rId140"/>
-    <hyperlink ref="AB139" r:id="rId141"/>
-    <hyperlink ref="AB141" r:id="rId142"/>
-    <hyperlink ref="AB143" r:id="rId143"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AB3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AB4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AB6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AB8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AB10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AB12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AB14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AB16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AB18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AB20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AB22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AB24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AB26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AB28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AB30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AB32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AB34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AB36" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AB38" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AB40" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AB42" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AB44" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AB46" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AB48" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AB50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AB52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="AB54" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="AB56" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="AB58" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AB60" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AB62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="AB64" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AB66" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AB68" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AB70" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="AB72" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AB74" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="AB76" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="AB78" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AB80" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="AB82" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AB84" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AB86" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AB88" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AB90" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AB92" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="AB94" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="AB96" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="AB98" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="AB100" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="AB102" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="AB104" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AB106" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="AB108" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="AB110" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AB112" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="AB114" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="AB116" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="AB118" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="AB120" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AB122" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AB124" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="AB126" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="AB128" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="AB130" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="AB132" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="AB134" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="AB136" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AB138" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="AB140" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AB142" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AB144" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AB5" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AB7" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AB9" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AB11" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AB13" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AB15" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AB17" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AB19" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AB21" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AB23" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AB25" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AB27" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AB29" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AB31" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AB33" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AB35" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AB37" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AB39" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AB41" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AB43" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AB45" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AB47" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="AB49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AB51" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="AB53" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="AB55" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="AB57" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="AB59" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="AB61" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="AB63" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="AB65" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="AB67" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="AB69" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="AB71" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="AB73" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="AB75" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="AB77" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="AB79" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="AB81" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="AB83" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="AB85" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="AB87" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="AB89" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="AB91" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="AB93" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="AB95" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="AB97" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="AB99" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="AB101" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="AB103" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="AB105" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="AB107" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="AB109" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="AB111" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="AB113" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="AB115" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="AB117" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="AB119" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="AB121" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="AB123" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="AB125" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="AB127" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="AB129" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="AB131" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="AB133" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="AB135" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="AB137" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="AB139" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="AB141" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="AB143" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId144"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-00003A000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
           <xm:sqref>F151:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-00003B000000}">
           <x14:formula1>
             <xm:f>'C:\Users\15651\Desktop\[1.xlsx]中国各省市区县数据'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F145</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-00003C000000}">
           <x14:formula1>
             <xm:f>'C:\Users\15651\Desktop\[shanxiCaseStatistics_20200401.xlsx]中国各省市区县数据'!#REF!</xm:f>
           </x14:formula1>
@@ -23317,7 +23318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
